--- a/myapp/files/9_MethodComparePercent/Scenario 340.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 340.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5767</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.07932788584989</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1327</v>
+        <v>7240</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91854497086761</v>
+        <v>1.35500847816078</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>4.34782608695652</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>3875</v>
+        <v>9788</v>
       </c>
       <c r="F4" t="n">
-        <v>5.60238263911981</v>
+        <v>1.83188162765715</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>4.34782608695652</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>4563</v>
+        <v>14178</v>
       </c>
       <c r="F5" t="n">
-        <v>6.5970766405945</v>
+        <v>2.65349588444248</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -707,10 +707,10 @@
         <v>6.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>6.52173913043478</v>
+        <v>2.8</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>768</v>
+        <v>12234</v>
       </c>
       <c r="F6" t="n">
-        <v>1.11035609466942</v>
+        <v>2.28966487870428</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.17391304347826</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8137</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.52288729099369</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1288</v>
+        <v>20480</v>
       </c>
       <c r="F8" t="n">
-        <v>1.86215970043518</v>
+        <v>3.83295215921724</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>3.125</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.17391304347826</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>2116</v>
+        <v>38083</v>
       </c>
       <c r="F9" t="n">
-        <v>3.05926236500065</v>
+        <v>7.127456888646</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
@@ -859,10 +859,10 @@
         <v>7.8125</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>2.17391304347826</v>
+        <v>5.2</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>2344</v>
+        <v>35494</v>
       </c>
       <c r="F10" t="n">
-        <v>3.38889933060564</v>
+        <v>6.64291034859652</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,10 +897,10 @@
         <v>6.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>4.34782608695652</v>
+        <v>7.6</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>2452</v>
+        <v>18362</v>
       </c>
       <c r="F11" t="n">
-        <v>3.54504315641852</v>
+        <v>3.43655603259507</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>4.34782608695652</v>
+        <v>5.2</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1118</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.209240259472894</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1397</v>
+        <v>15576</v>
       </c>
       <c r="F13" t="n">
-        <v>2.019749302413</v>
+        <v>2.91513978671717</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>3.125</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>4.34782608695652</v>
+        <v>4.8</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>16888</v>
+        <v>61230</v>
       </c>
       <c r="F14" t="n">
-        <v>24.4162678734078</v>
+        <v>11.4595537455504</v>
       </c>
       <c r="G14" t="n">
         <v>9</v>
@@ -1049,10 +1049,10 @@
         <v>14.0625</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J14" t="n">
-        <v>13.0434782608696</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
         <v>11</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>11821</v>
+        <v>64574</v>
       </c>
       <c r="F15" t="n">
-        <v>17.0905200456865</v>
+        <v>12.0854029652976</v>
       </c>
       <c r="G15" t="n">
         <v>13</v>
@@ -1087,10 +1087,10 @@
         <v>20.3125</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="J15" t="n">
-        <v>19.5652173913043</v>
+        <v>12.4</v>
       </c>
       <c r="K15" t="n">
         <v>11</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>3345</v>
+        <v>35210</v>
       </c>
       <c r="F16" t="n">
-        <v>4.83612127170471</v>
+        <v>6.58975808232612</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.6875</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>4.34782608695652</v>
+        <v>6.8</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4038</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.75573539154879</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.5625</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>16127</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.01826266951643</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.5625</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>2003</v>
+        <v>25931</v>
       </c>
       <c r="F19" t="n">
-        <v>2.89588965836309</v>
+        <v>4.85313879104796</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
@@ -1239,10 +1239,10 @@
         <v>10.9375</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>6.52173913043478</v>
+        <v>5.6</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>6813</v>
+        <v>47108</v>
       </c>
       <c r="F20" t="n">
-        <v>9.85007301169633</v>
+        <v>8.81653858966825</v>
       </c>
       <c r="G20" t="n">
         <v>11</v>
@@ -1277,10 +1277,10 @@
         <v>17.1875</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J20" t="n">
-        <v>8.69565217391304</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
         <v>8</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>6617</v>
+        <v>36563</v>
       </c>
       <c r="F21" t="n">
-        <v>9.56670088336924</v>
+        <v>6.8429799705791</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.5625</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J21" t="n">
-        <v>6.52173913043478</v>
+        <v>6.8</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>9774</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.82926144551706</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>16065</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3.00665900575317</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>198</v>
+        <v>13353</v>
       </c>
       <c r="F24" t="n">
-        <v>0.286263680656961</v>
+        <v>2.49909229404433</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.17391304347826</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>1248</v>
+        <v>9684</v>
       </c>
       <c r="F25" t="n">
-        <v>1.80432865383781</v>
+        <v>1.81241741747362</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>2.17391304347826</v>
+        <v>2.8</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>104</v>
+        <v>8200</v>
       </c>
       <c r="F26" t="n">
-        <v>0.150360721153151</v>
+        <v>1.53467811062409</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.5625</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>2.17391304347826</v>
+        <v>2.8</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
